--- a/策划文档/数值用表/MAGIC_card_hero_equip.xlsx
+++ b/策划文档/数值用表/MAGIC_card_hero_equip.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -27,6 +27,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -36,19 +37,20 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1、头盔
-2、项链
-3、上衣
-4、裤子
-5、戒指
-6、靴子</t>
+1、武器（攻击或法术）
+2、头盔（护甲）
+3、护腿（护甲）
+4、戒指（攻击或法术）
+5、铠甲（生命）
+6、靴子（生命）</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,6 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -65,6 +68,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,6 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -94,14 +99,26 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-{力量，智力，敏捷，精神，体质，攻击，法术，护甲，魔抗，生命，暴击，爆伤}</t>
+1力量
+2智力
+3敏捷
+4精神
+5体质
+6攻击
+7法术
+8护甲
+9魔抗
+10生命
+11暴击
+12爆伤</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,6 +126,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -118,6 +136,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -126,12 +145,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+能镶嵌宝石的等级上限</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="189">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,71 +245,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>equip_part_leg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_part_finger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_part_foot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备匹配英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_mate_hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌宝石数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inset_gem_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_part_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>equip_part_head</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equip_part_neck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>equip_part_body</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equip_part_leg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_part_finger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_part_foot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备匹配英雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_mate_hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_prop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镶嵌宝石数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inset_gem_max</t>
+    <t>镶嵌宝石等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备等阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_lv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -272,19 +329,510 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打孔消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1003=1,1001=100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slot_cost</t>
+    <t>inset_gem_lv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_name_7</t>
+  </si>
+  <si>
+    <t>equip_name_8</t>
+  </si>
+  <si>
+    <t>equip_name_9</t>
+  </si>
+  <si>
+    <t>equip_name_10</t>
+  </si>
+  <si>
+    <t>{1=0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_des_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_des_2</t>
+  </si>
+  <si>
+    <t>equip_des_3</t>
+  </si>
+  <si>
+    <t>equip_des_4</t>
+  </si>
+  <si>
+    <t>equip_des_5</t>
+  </si>
+  <si>
+    <t>equip_des_6</t>
+  </si>
+  <si>
+    <t>equip_des_7</t>
+  </si>
+  <si>
+    <t>equip_des_8</t>
+  </si>
+  <si>
+    <t>equip_des_9</t>
+  </si>
+  <si>
+    <t>equip_des_10</t>
+  </si>
+  <si>
+    <t>equip_des_11</t>
+  </si>
+  <si>
+    <t>equip_des_12</t>
+  </si>
+  <si>
+    <t>equip_des_13</t>
+  </si>
+  <si>
+    <t>equip_des_14</t>
+  </si>
+  <si>
+    <t>equip_des_15</t>
+  </si>
+  <si>
+    <t>equip_des_16</t>
+  </si>
+  <si>
+    <t>equip_des_17</t>
+  </si>
+  <si>
+    <t>equip_des_18</t>
+  </si>
+  <si>
+    <t>equip_des_19</t>
+  </si>
+  <si>
+    <t>equip_des_20</t>
+  </si>
+  <si>
+    <t>equip_des_21</t>
+  </si>
+  <si>
+    <t>equip_des_22</t>
+  </si>
+  <si>
+    <t>equip_des_23</t>
+  </si>
+  <si>
+    <t>equip_des_24</t>
+  </si>
+  <si>
+    <t>equip_des_25</t>
+  </si>
+  <si>
+    <t>equip_des_26</t>
+  </si>
+  <si>
+    <t>equip_des_27</t>
+  </si>
+  <si>
+    <t>equip_des_28</t>
+  </si>
+  <si>
+    <t>equip_des_29</t>
+  </si>
+  <si>
+    <t>equip_des_30</t>
+  </si>
+  <si>
+    <t>equip_des_31</t>
+  </si>
+  <si>
+    <t>equip_des_32</t>
+  </si>
+  <si>
+    <t>equip_des_33</t>
+  </si>
+  <si>
+    <t>equip_des_34</t>
+  </si>
+  <si>
+    <t>equip_des_35</t>
+  </si>
+  <si>
+    <t>equip_des_36</t>
+  </si>
+  <si>
+    <t>equip_des_37</t>
+  </si>
+  <si>
+    <t>equip_des_38</t>
+  </si>
+  <si>
+    <t>equip_des_39</t>
+  </si>
+  <si>
+    <t>equip_des_40</t>
+  </si>
+  <si>
+    <t>equip_des_41</t>
+  </si>
+  <si>
+    <t>equip_des_42</t>
+  </si>
+  <si>
+    <t>equip_des_43</t>
+  </si>
+  <si>
+    <t>equip_des_44</t>
+  </si>
+  <si>
+    <t>equip_des_45</t>
+  </si>
+  <si>
+    <t>equip_des_46</t>
+  </si>
+  <si>
+    <t>equip_des_47</t>
+  </si>
+  <si>
+    <t>equip_des_48</t>
+  </si>
+  <si>
+    <t>equip_des_49</t>
+  </si>
+  <si>
+    <t>equip_des_50</t>
+  </si>
+  <si>
+    <t>equip_name_11</t>
+  </si>
+  <si>
+    <t>equip_name_12</t>
+  </si>
+  <si>
+    <t>equip_name_13</t>
+  </si>
+  <si>
+    <t>equip_name_14</t>
+  </si>
+  <si>
+    <t>equip_name_15</t>
+  </si>
+  <si>
+    <t>equip_name_16</t>
+  </si>
+  <si>
+    <t>equip_name_17</t>
+  </si>
+  <si>
+    <t>equip_name_18</t>
+  </si>
+  <si>
+    <t>equip_name_19</t>
+  </si>
+  <si>
+    <t>equip_name_20</t>
+  </si>
+  <si>
+    <t>equip_name_21</t>
+  </si>
+  <si>
+    <t>equip_name_22</t>
+  </si>
+  <si>
+    <t>equip_name_23</t>
+  </si>
+  <si>
+    <t>equip_name_24</t>
+  </si>
+  <si>
+    <t>equip_name_25</t>
+  </si>
+  <si>
+    <t>equip_name_26</t>
+  </si>
+  <si>
+    <t>equip_name_27</t>
+  </si>
+  <si>
+    <t>equip_name_28</t>
+  </si>
+  <si>
+    <t>equip_name_29</t>
+  </si>
+  <si>
+    <t>equip_name_30</t>
+  </si>
+  <si>
+    <t>equip_name_31</t>
+  </si>
+  <si>
+    <t>equip_name_32</t>
+  </si>
+  <si>
+    <t>equip_name_33</t>
+  </si>
+  <si>
+    <t>equip_name_34</t>
+  </si>
+  <si>
+    <t>equip_name_35</t>
+  </si>
+  <si>
+    <t>equip_name_36</t>
+  </si>
+  <si>
+    <t>equip_name_37</t>
+  </si>
+  <si>
+    <t>equip_name_38</t>
+  </si>
+  <si>
+    <t>equip_name_39</t>
+  </si>
+  <si>
+    <t>equip_name_40</t>
+  </si>
+  <si>
+    <t>equip_name_41</t>
+  </si>
+  <si>
+    <t>equip_name_42</t>
+  </si>
+  <si>
+    <t>equip_name_43</t>
+  </si>
+  <si>
+    <t>equip_name_44</t>
+  </si>
+  <si>
+    <t>equip_name_45</t>
+  </si>
+  <si>
+    <t>equip_name_46</t>
+  </si>
+  <si>
+    <t>equip_name_47</t>
+  </si>
+  <si>
+    <t>equip_name_48</t>
+  </si>
+  <si>
+    <t>equip_name_49</t>
+  </si>
+  <si>
+    <t>equip_name_50</t>
+  </si>
+  <si>
+    <t>{8=75}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{8=120}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6=90}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6=50}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10=900}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10=720}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9=75}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9=120}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{7=360}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{7=210}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6=150}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{8=125}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{8=200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10=1500}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10=1200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{7=600}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{7=350}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9=125}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9=200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6=240}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{8=200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{8=320}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6=140}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10=2400}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10=1920}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{7=960}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9=200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9=320}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{7=560}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6=360}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{8=300}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{8=480}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6=210}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10=3600}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10=2880}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9=300}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9=480}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{7=840}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{7=1440}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6=480}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{8=400}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{8=640}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{6=280}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10=4800}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10=3840}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{7=1920}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9=400}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{9=640}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{7=1120}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,6 +859,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -318,6 +867,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -349,12 +899,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -661,26 +1217,28 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,28 +1246,34 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,28 +1281,34 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -746,28 +1316,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -775,145 +1351,1781 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>70010</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3</v>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>70011</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>70012</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>70013</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3</v>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>70014</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3</v>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>70015</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3</v>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>38</v>
+        <v>188</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>70016</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>70017</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>70018</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>70019</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>70020</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>70021</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>70022</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>70023</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>70024</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>70025</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="2">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>70026</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>70027</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" s="2">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>70028</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>70029</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>70030</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" s="2">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>70031</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>70032</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>70033</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>70034</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>70035</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>70036</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>70037</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>70038</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" s="2">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>70039</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>70040</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J35" s="2">
+        <v>3</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>70041</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" s="2">
+        <v>3</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>70042</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J37" s="2">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>70043</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J38" s="2">
+        <v>3</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>70044</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J39" s="2">
+        <v>3</v>
+      </c>
+      <c r="K39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>70045</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J40" s="2">
+        <v>3</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>70046</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41" s="2">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>70047</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J42" s="2">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>70048</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J43" s="2">
+        <v>3</v>
+      </c>
+      <c r="K43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>70049</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J44" s="2">
+        <v>3</v>
+      </c>
+      <c r="K44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>70050</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>5</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J45" s="2">
+        <v>3</v>
+      </c>
+      <c r="K45" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>70051</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J46" s="2">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>70052</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4">
+        <v>5</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J47" s="2">
+        <v>3</v>
+      </c>
+      <c r="K47" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>70053</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4</v>
+      </c>
+      <c r="E48" s="4">
+        <v>5</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J48" s="2">
+        <v>3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>70054</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+      <c r="E49" s="4">
+        <v>5</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J49" s="2">
+        <v>3</v>
+      </c>
+      <c r="K49" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>70055</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6</v>
+      </c>
+      <c r="E50" s="4">
+        <v>5</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J50" s="2">
+        <v>3</v>
+      </c>
+      <c r="K50" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>70056</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>5</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" s="2">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>70057</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4">
+        <v>5</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J52" s="2">
+        <v>3</v>
+      </c>
+      <c r="K52" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>70058</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J53" s="2">
+        <v>3</v>
+      </c>
+      <c r="K53" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>70059</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4">
+        <v>5</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J54" s="2">
+        <v>3</v>
+      </c>
+      <c r="K54" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/数值用表/MAGIC_card_hero_equip.xlsx
+++ b/策划文档/数值用表/MAGIC_card_hero_equip.xlsx
@@ -210,25 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equip_name_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_name_2</t>
-  </si>
-  <si>
-    <t>equip_name_3</t>
-  </si>
-  <si>
-    <t>equip_name_4</t>
-  </si>
-  <si>
-    <t>equip_name_5</t>
-  </si>
-  <si>
-    <t>equip_name_6</t>
-  </si>
-  <si>
     <t>装备部位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,18 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equip_name_7</t>
-  </si>
-  <si>
-    <t>equip_name_8</t>
-  </si>
-  <si>
-    <t>equip_name_9</t>
-  </si>
-  <si>
-    <t>equip_name_10</t>
-  </si>
-  <si>
     <t>{1=0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,277 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equip_des_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_des_2</t>
-  </si>
-  <si>
-    <t>equip_des_3</t>
-  </si>
-  <si>
-    <t>equip_des_4</t>
-  </si>
-  <si>
-    <t>equip_des_5</t>
-  </si>
-  <si>
-    <t>equip_des_6</t>
-  </si>
-  <si>
-    <t>equip_des_7</t>
-  </si>
-  <si>
-    <t>equip_des_8</t>
-  </si>
-  <si>
-    <t>equip_des_9</t>
-  </si>
-  <si>
-    <t>equip_des_10</t>
-  </si>
-  <si>
-    <t>equip_des_11</t>
-  </si>
-  <si>
-    <t>equip_des_12</t>
-  </si>
-  <si>
-    <t>equip_des_13</t>
-  </si>
-  <si>
-    <t>equip_des_14</t>
-  </si>
-  <si>
-    <t>equip_des_15</t>
-  </si>
-  <si>
-    <t>equip_des_16</t>
-  </si>
-  <si>
-    <t>equip_des_17</t>
-  </si>
-  <si>
-    <t>equip_des_18</t>
-  </si>
-  <si>
-    <t>equip_des_19</t>
-  </si>
-  <si>
-    <t>equip_des_20</t>
-  </si>
-  <si>
-    <t>equip_des_21</t>
-  </si>
-  <si>
-    <t>equip_des_22</t>
-  </si>
-  <si>
-    <t>equip_des_23</t>
-  </si>
-  <si>
-    <t>equip_des_24</t>
-  </si>
-  <si>
-    <t>equip_des_25</t>
-  </si>
-  <si>
-    <t>equip_des_26</t>
-  </si>
-  <si>
-    <t>equip_des_27</t>
-  </si>
-  <si>
-    <t>equip_des_28</t>
-  </si>
-  <si>
-    <t>equip_des_29</t>
-  </si>
-  <si>
-    <t>equip_des_30</t>
-  </si>
-  <si>
-    <t>equip_des_31</t>
-  </si>
-  <si>
-    <t>equip_des_32</t>
-  </si>
-  <si>
-    <t>equip_des_33</t>
-  </si>
-  <si>
-    <t>equip_des_34</t>
-  </si>
-  <si>
-    <t>equip_des_35</t>
-  </si>
-  <si>
-    <t>equip_des_36</t>
-  </si>
-  <si>
-    <t>equip_des_37</t>
-  </si>
-  <si>
-    <t>equip_des_38</t>
-  </si>
-  <si>
-    <t>equip_des_39</t>
-  </si>
-  <si>
-    <t>equip_des_40</t>
-  </si>
-  <si>
-    <t>equip_des_41</t>
-  </si>
-  <si>
-    <t>equip_des_42</t>
-  </si>
-  <si>
-    <t>equip_des_43</t>
-  </si>
-  <si>
-    <t>equip_des_44</t>
-  </si>
-  <si>
-    <t>equip_des_45</t>
-  </si>
-  <si>
-    <t>equip_des_46</t>
-  </si>
-  <si>
-    <t>equip_des_47</t>
-  </si>
-  <si>
-    <t>equip_des_48</t>
-  </si>
-  <si>
-    <t>equip_des_49</t>
-  </si>
-  <si>
-    <t>equip_des_50</t>
-  </si>
-  <si>
-    <t>equip_name_11</t>
-  </si>
-  <si>
-    <t>equip_name_12</t>
-  </si>
-  <si>
-    <t>equip_name_13</t>
-  </si>
-  <si>
-    <t>equip_name_14</t>
-  </si>
-  <si>
-    <t>equip_name_15</t>
-  </si>
-  <si>
-    <t>equip_name_16</t>
-  </si>
-  <si>
-    <t>equip_name_17</t>
-  </si>
-  <si>
-    <t>equip_name_18</t>
-  </si>
-  <si>
-    <t>equip_name_19</t>
-  </si>
-  <si>
-    <t>equip_name_20</t>
-  </si>
-  <si>
-    <t>equip_name_21</t>
-  </si>
-  <si>
-    <t>equip_name_22</t>
-  </si>
-  <si>
-    <t>equip_name_23</t>
-  </si>
-  <si>
-    <t>equip_name_24</t>
-  </si>
-  <si>
-    <t>equip_name_25</t>
-  </si>
-  <si>
-    <t>equip_name_26</t>
-  </si>
-  <si>
-    <t>equip_name_27</t>
-  </si>
-  <si>
-    <t>equip_name_28</t>
-  </si>
-  <si>
-    <t>equip_name_29</t>
-  </si>
-  <si>
-    <t>equip_name_30</t>
-  </si>
-  <si>
-    <t>equip_name_31</t>
-  </si>
-  <si>
-    <t>equip_name_32</t>
-  </si>
-  <si>
-    <t>equip_name_33</t>
-  </si>
-  <si>
-    <t>equip_name_34</t>
-  </si>
-  <si>
-    <t>equip_name_35</t>
-  </si>
-  <si>
-    <t>equip_name_36</t>
-  </si>
-  <si>
-    <t>equip_name_37</t>
-  </si>
-  <si>
-    <t>equip_name_38</t>
-  </si>
-  <si>
-    <t>equip_name_39</t>
-  </si>
-  <si>
-    <t>equip_name_40</t>
-  </si>
-  <si>
-    <t>equip_name_41</t>
-  </si>
-  <si>
-    <t>equip_name_42</t>
-  </si>
-  <si>
-    <t>equip_name_43</t>
-  </si>
-  <si>
-    <t>equip_name_44</t>
-  </si>
-  <si>
-    <t>equip_name_45</t>
-  </si>
-  <si>
-    <t>equip_name_46</t>
-  </si>
-  <si>
-    <t>equip_name_47</t>
-  </si>
-  <si>
-    <t>equip_name_48</t>
-  </si>
-  <si>
-    <t>equip_name_49</t>
-  </si>
-  <si>
-    <t>equip_name_50</t>
-  </si>
-  <si>
     <t>{8=75}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -834,6 +532,306 @@
   <si>
     <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_name_70010</t>
+  </si>
+  <si>
+    <t>equip_des_70010</t>
+  </si>
+  <si>
+    <t>equip_name_70011</t>
+  </si>
+  <si>
+    <t>equip_des_70011</t>
+  </si>
+  <si>
+    <t>equip_name_70012</t>
+  </si>
+  <si>
+    <t>equip_des_70012</t>
+  </si>
+  <si>
+    <t>equip_name_70013</t>
+  </si>
+  <si>
+    <t>equip_des_70013</t>
+  </si>
+  <si>
+    <t>equip_name_70014</t>
+  </si>
+  <si>
+    <t>equip_des_70014</t>
+  </si>
+  <si>
+    <t>equip_name_70015</t>
+  </si>
+  <si>
+    <t>equip_des_70015</t>
+  </si>
+  <si>
+    <t>equip_name_70016</t>
+  </si>
+  <si>
+    <t>equip_des_70016</t>
+  </si>
+  <si>
+    <t>equip_name_70017</t>
+  </si>
+  <si>
+    <t>equip_des_70017</t>
+  </si>
+  <si>
+    <t>equip_name_70018</t>
+  </si>
+  <si>
+    <t>equip_des_70018</t>
+  </si>
+  <si>
+    <t>equip_name_70019</t>
+  </si>
+  <si>
+    <t>equip_des_70019</t>
+  </si>
+  <si>
+    <t>equip_name_70020</t>
+  </si>
+  <si>
+    <t>equip_des_70020</t>
+  </si>
+  <si>
+    <t>equip_name_70021</t>
+  </si>
+  <si>
+    <t>equip_des_70021</t>
+  </si>
+  <si>
+    <t>equip_name_70022</t>
+  </si>
+  <si>
+    <t>equip_des_70022</t>
+  </si>
+  <si>
+    <t>equip_name_70023</t>
+  </si>
+  <si>
+    <t>equip_des_70023</t>
+  </si>
+  <si>
+    <t>equip_name_70024</t>
+  </si>
+  <si>
+    <t>equip_des_70024</t>
+  </si>
+  <si>
+    <t>equip_name_70025</t>
+  </si>
+  <si>
+    <t>equip_des_70025</t>
+  </si>
+  <si>
+    <t>equip_name_70026</t>
+  </si>
+  <si>
+    <t>equip_des_70026</t>
+  </si>
+  <si>
+    <t>equip_name_70027</t>
+  </si>
+  <si>
+    <t>equip_des_70027</t>
+  </si>
+  <si>
+    <t>equip_name_70028</t>
+  </si>
+  <si>
+    <t>equip_des_70028</t>
+  </si>
+  <si>
+    <t>equip_name_70029</t>
+  </si>
+  <si>
+    <t>equip_des_70029</t>
+  </si>
+  <si>
+    <t>equip_name_70030</t>
+  </si>
+  <si>
+    <t>equip_des_70030</t>
+  </si>
+  <si>
+    <t>equip_name_70031</t>
+  </si>
+  <si>
+    <t>equip_des_70031</t>
+  </si>
+  <si>
+    <t>equip_name_70032</t>
+  </si>
+  <si>
+    <t>equip_des_70032</t>
+  </si>
+  <si>
+    <t>equip_name_70033</t>
+  </si>
+  <si>
+    <t>equip_des_70033</t>
+  </si>
+  <si>
+    <t>equip_name_70034</t>
+  </si>
+  <si>
+    <t>equip_des_70034</t>
+  </si>
+  <si>
+    <t>equip_name_70035</t>
+  </si>
+  <si>
+    <t>equip_des_70035</t>
+  </si>
+  <si>
+    <t>equip_name_70036</t>
+  </si>
+  <si>
+    <t>equip_des_70036</t>
+  </si>
+  <si>
+    <t>equip_name_70037</t>
+  </si>
+  <si>
+    <t>equip_des_70037</t>
+  </si>
+  <si>
+    <t>equip_name_70038</t>
+  </si>
+  <si>
+    <t>equip_des_70038</t>
+  </si>
+  <si>
+    <t>equip_name_70039</t>
+  </si>
+  <si>
+    <t>equip_des_70039</t>
+  </si>
+  <si>
+    <t>equip_name_70040</t>
+  </si>
+  <si>
+    <t>equip_des_70040</t>
+  </si>
+  <si>
+    <t>equip_name_70041</t>
+  </si>
+  <si>
+    <t>equip_des_70041</t>
+  </si>
+  <si>
+    <t>equip_name_70042</t>
+  </si>
+  <si>
+    <t>equip_des_70042</t>
+  </si>
+  <si>
+    <t>equip_name_70043</t>
+  </si>
+  <si>
+    <t>equip_des_70043</t>
+  </si>
+  <si>
+    <t>equip_name_70044</t>
+  </si>
+  <si>
+    <t>equip_des_70044</t>
+  </si>
+  <si>
+    <t>equip_name_70045</t>
+  </si>
+  <si>
+    <t>equip_des_70045</t>
+  </si>
+  <si>
+    <t>equip_name_70046</t>
+  </si>
+  <si>
+    <t>equip_des_70046</t>
+  </si>
+  <si>
+    <t>equip_name_70047</t>
+  </si>
+  <si>
+    <t>equip_des_70047</t>
+  </si>
+  <si>
+    <t>equip_name_70048</t>
+  </si>
+  <si>
+    <t>equip_des_70048</t>
+  </si>
+  <si>
+    <t>equip_name_70049</t>
+  </si>
+  <si>
+    <t>equip_des_70049</t>
+  </si>
+  <si>
+    <t>equip_name_70050</t>
+  </si>
+  <si>
+    <t>equip_des_70050</t>
+  </si>
+  <si>
+    <t>equip_name_70051</t>
+  </si>
+  <si>
+    <t>equip_des_70051</t>
+  </si>
+  <si>
+    <t>equip_name_70052</t>
+  </si>
+  <si>
+    <t>equip_des_70052</t>
+  </si>
+  <si>
+    <t>equip_name_70053</t>
+  </si>
+  <si>
+    <t>equip_des_70053</t>
+  </si>
+  <si>
+    <t>equip_name_70054</t>
+  </si>
+  <si>
+    <t>equip_des_70054</t>
+  </si>
+  <si>
+    <t>equip_name_70055</t>
+  </si>
+  <si>
+    <t>equip_des_70055</t>
+  </si>
+  <si>
+    <t>equip_name_70056</t>
+  </si>
+  <si>
+    <t>equip_des_70056</t>
+  </si>
+  <si>
+    <t>equip_name_70057</t>
+  </si>
+  <si>
+    <t>equip_des_70057</t>
+  </si>
+  <si>
+    <t>equip_name_70058</t>
+  </si>
+  <si>
+    <t>equip_des_70058</t>
+  </si>
+  <si>
+    <t>equip_name_70059</t>
+  </si>
+  <si>
+    <t>equip_des_70059</t>
   </si>
 </sst>
 </file>
@@ -1220,14 +1218,14 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" bestFit="1" customWidth="1"/>
@@ -1246,31 +1244,31 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -1281,31 +1279,31 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -1351,31 +1349,31 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1383,10 +1381,10 @@
         <v>70010</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1395,16 +1393,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2">
         <v>3</v>
@@ -1418,10 +1416,10 @@
         <v>70011</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1430,16 +1428,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
@@ -1453,10 +1451,10 @@
         <v>70012</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -1465,16 +1463,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
@@ -1488,10 +1486,10 @@
         <v>70013</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -1500,16 +1498,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2">
         <v>3</v>
@@ -1523,10 +1521,10 @@
         <v>70014</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -1535,16 +1533,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2">
         <v>3</v>
@@ -1558,10 +1556,10 @@
         <v>70015</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -1570,16 +1568,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2">
         <v>3</v>
@@ -1593,10 +1591,10 @@
         <v>70016</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1605,16 +1603,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2">
         <v>3</v>
@@ -1628,10 +1626,10 @@
         <v>70017</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1640,16 +1638,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2">
         <v>3</v>
@@ -1663,10 +1661,10 @@
         <v>70018</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -1675,16 +1673,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2">
         <v>3</v>
@@ -1698,10 +1696,10 @@
         <v>70019</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -1710,16 +1708,16 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2">
         <v>3</v>
@@ -1733,10 +1731,10 @@
         <v>70020</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1745,16 +1743,16 @@
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J15" s="2">
         <v>3</v>
@@ -1768,10 +1766,10 @@
         <v>70021</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1780,16 +1778,16 @@
         <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J16" s="2">
         <v>3</v>
@@ -1803,10 +1801,10 @@
         <v>70022</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -1815,16 +1813,16 @@
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J17" s="2">
         <v>3</v>
@@ -1838,10 +1836,10 @@
         <v>70023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -1850,16 +1848,16 @@
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J18" s="2">
         <v>3</v>
@@ -1873,10 +1871,10 @@
         <v>70024</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
@@ -1885,16 +1883,16 @@
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J19" s="2">
         <v>3</v>
@@ -1908,10 +1906,10 @@
         <v>70025</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
@@ -1920,16 +1918,16 @@
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J20" s="2">
         <v>3</v>
@@ -1943,10 +1941,10 @@
         <v>70026</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1955,16 +1953,16 @@
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2">
         <v>3</v>
@@ -1978,10 +1976,10 @@
         <v>70027</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1990,16 +1988,16 @@
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J22" s="2">
         <v>3</v>
@@ -2013,10 +2011,10 @@
         <v>70028</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -2025,16 +2023,16 @@
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J23" s="2">
         <v>3</v>
@@ -2048,10 +2046,10 @@
         <v>70029</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
@@ -2060,16 +2058,16 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J24" s="2">
         <v>3</v>
@@ -2083,10 +2081,10 @@
         <v>70030</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -2095,16 +2093,16 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J25" s="2">
         <v>3</v>
@@ -2118,10 +2116,10 @@
         <v>70031</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -2130,16 +2128,16 @@
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J26" s="2">
         <v>3</v>
@@ -2153,10 +2151,10 @@
         <v>70032</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -2165,16 +2163,16 @@
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J27" s="2">
         <v>3</v>
@@ -2188,10 +2186,10 @@
         <v>70033</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
@@ -2200,16 +2198,16 @@
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J28" s="2">
         <v>3</v>
@@ -2223,10 +2221,10 @@
         <v>70034</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
@@ -2235,16 +2233,16 @@
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J29" s="2">
         <v>3</v>
@@ -2258,10 +2256,10 @@
         <v>70035</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
@@ -2270,16 +2268,16 @@
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J30" s="2">
         <v>3</v>
@@ -2293,10 +2291,10 @@
         <v>70036</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -2305,16 +2303,16 @@
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J31" s="2">
         <v>3</v>
@@ -2328,10 +2326,10 @@
         <v>70037</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -2340,16 +2338,16 @@
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J32" s="2">
         <v>3</v>
@@ -2363,10 +2361,10 @@
         <v>70038</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -2375,16 +2373,16 @@
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J33" s="2">
         <v>3</v>
@@ -2398,10 +2396,10 @@
         <v>70039</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
@@ -2410,16 +2408,16 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J34" s="2">
         <v>3</v>
@@ -2433,10 +2431,10 @@
         <v>70040</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -2445,16 +2443,16 @@
         <v>4</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J35" s="2">
         <v>3</v>
@@ -2468,10 +2466,10 @@
         <v>70041</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -2480,16 +2478,16 @@
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J36" s="2">
         <v>3</v>
@@ -2503,10 +2501,10 @@
         <v>70042</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -2515,16 +2513,16 @@
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J37" s="2">
         <v>3</v>
@@ -2538,10 +2536,10 @@
         <v>70043</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -2550,16 +2548,16 @@
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J38" s="2">
         <v>3</v>
@@ -2573,10 +2571,10 @@
         <v>70044</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
@@ -2585,16 +2583,16 @@
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J39" s="2">
         <v>3</v>
@@ -2608,10 +2606,10 @@
         <v>70045</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="D40" s="1">
         <v>6</v>
@@ -2620,16 +2618,16 @@
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J40" s="2">
         <v>3</v>
@@ -2643,10 +2641,10 @@
         <v>70046</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -2655,16 +2653,16 @@
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J41" s="2">
         <v>3</v>
@@ -2678,10 +2676,10 @@
         <v>70047</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -2690,16 +2688,16 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J42" s="2">
         <v>3</v>
@@ -2713,10 +2711,10 @@
         <v>70048</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -2725,16 +2723,16 @@
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J43" s="2">
         <v>3</v>
@@ -2748,10 +2746,10 @@
         <v>70049</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
@@ -2760,16 +2758,16 @@
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J44" s="2">
         <v>3</v>
@@ -2783,10 +2781,10 @@
         <v>70050</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -2795,16 +2793,16 @@
         <v>5</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J45" s="2">
         <v>3</v>
@@ -2818,10 +2816,10 @@
         <v>70051</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
@@ -2830,16 +2828,16 @@
         <v>5</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J46" s="2">
         <v>3</v>
@@ -2853,10 +2851,10 @@
         <v>70052</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -2865,16 +2863,16 @@
         <v>5</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J47" s="2">
         <v>3</v>
@@ -2888,10 +2886,10 @@
         <v>70053</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -2900,16 +2898,16 @@
         <v>5</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J48" s="2">
         <v>3</v>
@@ -2923,10 +2921,10 @@
         <v>70054</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="D49" s="1">
         <v>5</v>
@@ -2935,16 +2933,16 @@
         <v>5</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J49" s="2">
         <v>3</v>
@@ -2958,10 +2956,10 @@
         <v>70055</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="D50" s="1">
         <v>6</v>
@@ -2970,16 +2968,16 @@
         <v>5</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J50" s="2">
         <v>3</v>
@@ -2993,10 +2991,10 @@
         <v>70056</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -3005,16 +3003,16 @@
         <v>5</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J51" s="2">
         <v>3</v>
@@ -3028,10 +3026,10 @@
         <v>70057</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -3040,16 +3038,16 @@
         <v>5</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J52" s="2">
         <v>3</v>
@@ -3063,10 +3061,10 @@
         <v>70058</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -3075,16 +3073,16 @@
         <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J53" s="2">
         <v>3</v>
@@ -3098,10 +3096,10 @@
         <v>70059</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
@@ -3110,16 +3108,16 @@
         <v>5</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="J54" s="2">
         <v>3</v>

--- a/策划文档/数值用表/MAGIC_card_hero_equip.xlsx
+++ b/策划文档/数值用表/MAGIC_card_hero_equip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="card_hero_equip" sheetId="1" r:id="rId1"/>
@@ -105,16 +105,14 @@
           <t xml:space="preserve">
 1力量
 2智力
-3敏捷
-4精神
-5体质
-6攻击
-7法术
-8护甲
-9魔抗
-10生命
-11暴击
-12爆伤</t>
+3精神
+4体质
+5攻击
+6法术
+7护甲
+8生命
+9暴击
+10爆伤</t>
         </r>
       </text>
     </comment>
@@ -176,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="140">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,202 +329,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{8=75}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{8=120}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{6=90}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{6=50}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10=900}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10=720}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{9=75}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{9=120}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7=360}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7=210}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{6=150}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{8=125}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{8=200}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10=1500}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10=1200}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7=600}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7=350}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{9=125}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{9=200}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{6=240}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{8=200}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{8=320}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{6=140}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10=2400}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10=1920}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7=960}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{9=200}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{9=320}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7=560}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{6=360}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{8=300}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{8=480}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{6=210}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10=3600}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10=2880}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{9=300}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{9=480}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7=840}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7=1440}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{6=480}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{8=400}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{8=640}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{6=280}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10=4800}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10=3840}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7=1920}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{9=400}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{9=640}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7=1120}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1218,25 +1020,25 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1306,7 +1108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1341,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1376,15 +1178,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>70010</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1398,11 +1200,8 @@
       <c r="G5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2">
         <v>3</v>
@@ -1411,15 +1210,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>70011</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -1433,11 +1232,8 @@
       <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
@@ -1446,15 +1242,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>70012</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -1468,11 +1264,8 @@
       <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
@@ -1481,15 +1274,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>70013</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -1503,11 +1296,8 @@
       <c r="G8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2">
         <v>3</v>
@@ -1516,15 +1306,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>70014</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -1538,11 +1328,8 @@
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2">
         <v>3</v>
@@ -1551,15 +1338,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>70015</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -1573,11 +1360,8 @@
       <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2">
         <v>3</v>
@@ -1586,15 +1370,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>70016</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1608,11 +1392,8 @@
       <c r="G11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2">
         <v>3</v>
@@ -1621,15 +1402,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>70017</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1643,11 +1424,8 @@
       <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2">
         <v>3</v>
@@ -1656,15 +1434,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>70018</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -1678,11 +1456,8 @@
       <c r="G13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2">
         <v>3</v>
@@ -1691,15 +1466,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>70019</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -1713,11 +1488,8 @@
       <c r="G14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2">
         <v>3</v>
@@ -1726,15 +1498,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>70020</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1748,11 +1520,8 @@
       <c r="G15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2">
         <v>3</v>
@@ -1761,15 +1530,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>70021</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1783,11 +1552,8 @@
       <c r="G16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J16" s="2">
         <v>3</v>
@@ -1796,15 +1562,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>70022</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -1818,11 +1584,8 @@
       <c r="G17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2">
         <v>3</v>
@@ -1831,15 +1594,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>70023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -1853,11 +1616,8 @@
       <c r="G18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J18" s="2">
         <v>3</v>
@@ -1866,15 +1626,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>70024</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
@@ -1888,11 +1648,8 @@
       <c r="G19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J19" s="2">
         <v>3</v>
@@ -1901,15 +1658,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>70025</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
@@ -1923,11 +1680,8 @@
       <c r="G20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J20" s="2">
         <v>3</v>
@@ -1936,15 +1690,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>70026</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1958,11 +1712,8 @@
       <c r="G21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J21" s="2">
         <v>3</v>
@@ -1971,15 +1722,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>70027</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1993,11 +1744,8 @@
       <c r="G22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J22" s="2">
         <v>3</v>
@@ -2006,15 +1754,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>70028</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -2028,11 +1776,8 @@
       <c r="G23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J23" s="2">
         <v>3</v>
@@ -2041,15 +1786,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>70029</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1">
         <v>4</v>
@@ -2063,11 +1808,8 @@
       <c r="G24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J24" s="2">
         <v>3</v>
@@ -2076,15 +1818,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>70030</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -2098,11 +1840,8 @@
       <c r="G25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J25" s="2">
         <v>3</v>
@@ -2111,15 +1850,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>70031</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -2133,11 +1872,8 @@
       <c r="G26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J26" s="2">
         <v>3</v>
@@ -2146,15 +1882,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>70032</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -2168,11 +1904,8 @@
       <c r="G27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J27" s="2">
         <v>3</v>
@@ -2181,15 +1914,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>70033</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="D28" s="1">
         <v>4</v>
@@ -2203,11 +1936,8 @@
       <c r="G28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J28" s="2">
         <v>3</v>
@@ -2216,15 +1946,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>70034</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
@@ -2238,11 +1968,8 @@
       <c r="G29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J29" s="2">
         <v>3</v>
@@ -2251,15 +1978,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>70035</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1">
         <v>6</v>
@@ -2273,11 +2000,8 @@
       <c r="G30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J30" s="2">
         <v>3</v>
@@ -2286,15 +2010,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>70036</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -2308,11 +2032,8 @@
       <c r="G31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J31" s="2">
         <v>3</v>
@@ -2321,15 +2042,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>70037</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
@@ -2343,11 +2064,8 @@
       <c r="G32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J32" s="2">
         <v>3</v>
@@ -2356,15 +2074,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>70038</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -2378,11 +2096,8 @@
       <c r="G33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J33" s="2">
         <v>3</v>
@@ -2391,15 +2106,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>70039</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
@@ -2413,11 +2128,8 @@
       <c r="G34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J34" s="2">
         <v>3</v>
@@ -2426,15 +2138,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>70040</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -2448,11 +2160,9 @@
       <c r="G35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J35" s="2">
         <v>3</v>
@@ -2461,15 +2171,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>70041</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -2483,11 +2193,9 @@
       <c r="G36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="H36" s="3"/>
       <c r="I36" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J36" s="2">
         <v>3</v>
@@ -2496,15 +2204,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>70042</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -2518,11 +2226,9 @@
       <c r="G37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J37" s="2">
         <v>3</v>
@@ -2531,15 +2237,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>70043</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -2553,11 +2259,9 @@
       <c r="G38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="H38" s="3"/>
       <c r="I38" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J38" s="2">
         <v>3</v>
@@ -2566,15 +2270,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>70044</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
@@ -2588,11 +2292,9 @@
       <c r="G39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J39" s="2">
         <v>3</v>
@@ -2601,15 +2303,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>70045</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="D40" s="1">
         <v>6</v>
@@ -2623,11 +2325,9 @@
       <c r="G40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="H40" s="3"/>
       <c r="I40" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J40" s="2">
         <v>3</v>
@@ -2636,15 +2336,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>70046</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -2658,11 +2358,9 @@
       <c r="G41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="H41" s="3"/>
       <c r="I41" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J41" s="2">
         <v>3</v>
@@ -2671,15 +2369,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>70047</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -2693,11 +2391,9 @@
       <c r="G42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="H42" s="3"/>
       <c r="I42" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J42" s="2">
         <v>3</v>
@@ -2706,15 +2402,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>70048</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -2728,11 +2424,9 @@
       <c r="G43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="H43" s="3"/>
       <c r="I43" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J43" s="2">
         <v>3</v>
@@ -2741,15 +2435,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>70049</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="D44" s="1">
         <v>4</v>
@@ -2763,11 +2457,9 @@
       <c r="G44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="H44" s="3"/>
       <c r="I44" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J44" s="2">
         <v>3</v>
@@ -2776,15 +2468,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>70050</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -2798,11 +2490,9 @@
       <c r="G45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="H45" s="4"/>
       <c r="I45" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J45" s="2">
         <v>3</v>
@@ -2811,15 +2501,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>70051</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="D46" s="1">
         <v>2</v>
@@ -2833,11 +2523,9 @@
       <c r="G46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="H46" s="4"/>
       <c r="I46" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J46" s="2">
         <v>3</v>
@@ -2846,15 +2534,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>70052</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -2868,11 +2556,9 @@
       <c r="G47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="H47" s="4"/>
       <c r="I47" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J47" s="2">
         <v>3</v>
@@ -2881,15 +2567,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>70053</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -2903,11 +2589,9 @@
       <c r="G48" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="H48" s="4"/>
       <c r="I48" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J48" s="2">
         <v>3</v>
@@ -2916,15 +2600,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>70054</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="D49" s="1">
         <v>5</v>
@@ -2938,11 +2622,9 @@
       <c r="G49" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="H49" s="4"/>
       <c r="I49" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J49" s="2">
         <v>3</v>
@@ -2951,15 +2633,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>70055</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="D50" s="1">
         <v>6</v>
@@ -2973,11 +2655,9 @@
       <c r="G50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="H50" s="4"/>
       <c r="I50" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J50" s="2">
         <v>3</v>
@@ -2986,15 +2666,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>70056</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -3008,11 +2688,9 @@
       <c r="G51" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="H51" s="4"/>
       <c r="I51" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J51" s="2">
         <v>3</v>
@@ -3021,15 +2699,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>70057</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -3043,11 +2721,9 @@
       <c r="G52" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="H52" s="4"/>
       <c r="I52" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J52" s="2">
         <v>3</v>
@@ -3056,15 +2732,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>70058</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -3078,11 +2754,9 @@
       <c r="G53" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="H53" s="4"/>
       <c r="I53" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J53" s="2">
         <v>3</v>
@@ -3091,15 +2765,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>70059</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="D54" s="1">
         <v>4</v>
@@ -3113,11 +2787,9 @@
       <c r="G54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="H54" s="4"/>
       <c r="I54" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="J54" s="2">
         <v>3</v>
